--- a/doc/benchmark.xlsx
+++ b/doc/benchmark.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asuspc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lib\co2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -301,53 +301,20 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="530772728"/>
-        <c:axId val="530773120"/>
+        <c:axId val="461081712"/>
+        <c:axId val="461078968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="530772728"/>
+        <c:axId val="461081712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="530773120"/>
+        <c:crossAx val="461078968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -355,7 +322,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="530773120"/>
+        <c:axId val="461078968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -467,7 +434,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530772728"/>
+        <c:crossAx val="461081712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1392,7 +1359,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
